--- a/theblog/tables/locais.xlsx
+++ b/theblog/tables/locais.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Python\mysite\News\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Python\simpleblog\ablog\theblog\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBB098A-CF5D-4FA9-B5FE-489ACED27F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE5FD4B-4DDF-4E84-A7C2-8A85A9FD5796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4C9BA1E5-2B09-488B-B8D5-A733DF892B66}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="330">
   <si>
     <t>ID</t>
   </si>
@@ -421,9 +421,6 @@
     <t>CM 022, 44 - Samambaia - Campo Magro/PR</t>
   </si>
   <si>
-    <t>4338/2020</t>
-  </si>
-  <si>
     <t>Passauna</t>
   </si>
   <si>
@@ -469,9 +466,6 @@
     <t>Rua Terezinha Bozza Jarek, 182 - Jardim Novos Horizontes - Campo Magro/PR</t>
   </si>
   <si>
-    <t>4665/2020</t>
-  </si>
-  <si>
     <t>Rodovia Gumercindo Boza, 20088 - Sede - Campo Magro/PR</t>
   </si>
   <si>
@@ -490,9 +484,6 @@
     <t>ZUC I / APP</t>
   </si>
   <si>
-    <t>2114/2020</t>
-  </si>
-  <si>
     <t>Rua Luiz Francisco Pase</t>
   </si>
   <si>
@@ -544,9 +535,6 @@
     <t>ZOO V / ZOO III</t>
   </si>
   <si>
-    <t>3891/2016</t>
-  </si>
-  <si>
     <t>Rua José Muzniski</t>
   </si>
   <si>
@@ -571,9 +559,6 @@
     <t>Rua Iris, 319 - Jardim Boa Vista I - Campo Magro/PR</t>
   </si>
   <si>
-    <t>1988/2020</t>
-  </si>
-  <si>
     <t>Rua Espirito Santo</t>
   </si>
   <si>
@@ -604,9 +589,6 @@
     <t>Rua Cravo, 211 - Jardim Boa Vista I - Campo Magro/PR</t>
   </si>
   <si>
-    <t>2205/2021</t>
-  </si>
-  <si>
     <t>CM 147</t>
   </si>
   <si>
@@ -619,9 +601,6 @@
     <t>Rodovia Gumercindo Boza, 19020 - Sede - Campo Magro/PR</t>
   </si>
   <si>
-    <t>2385/2021</t>
-  </si>
-  <si>
     <t>Estrada de Santa Barbara</t>
   </si>
   <si>
@@ -1019,6 +998,30 @@
   </si>
   <si>
     <t>-49.3577009</t>
+  </si>
+  <si>
+    <t>4501/2021</t>
+  </si>
+  <si>
+    <t>3911/2021</t>
+  </si>
+  <si>
+    <t>1297/2019</t>
+  </si>
+  <si>
+    <t>1214/2021</t>
+  </si>
+  <si>
+    <t>5731/2021</t>
+  </si>
+  <si>
+    <t>5767/2021</t>
+  </si>
+  <si>
+    <t>5543/2021</t>
+  </si>
+  <si>
+    <t>0093/2022</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1457,7 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -1521,22 +1524,22 @@
         <v>11501</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="I2" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>103</v>
@@ -1547,10 +1550,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D3" s="5">
         <v>544</v>
@@ -1565,13 +1568,13 @@
         <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>27</v>
@@ -1582,7 +1585,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
@@ -1600,16 +1603,16 @@
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1617,7 +1620,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -1635,16 +1638,16 @@
         <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1652,16 +1655,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D6" s="5">
         <v>260</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>14</v>
@@ -1670,16 +1673,16 @@
         <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1687,10 +1690,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="D7" s="5">
         <v>161</v>
@@ -1705,13 +1708,13 @@
         <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>27</v>
@@ -1722,16 +1725,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D8" s="7">
         <v>60</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>14</v>
@@ -1740,13 +1743,13 @@
         <v>15</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>126</v>
@@ -1757,16 +1760,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D9" s="5">
         <v>60</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>14</v>
@@ -1775,13 +1778,13 @@
         <v>15</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>126</v>
@@ -1795,13 +1798,13 @@
         <v>152</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D10" s="5">
         <v>260</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>14</v>
@@ -1810,13 +1813,13 @@
         <v>15</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>107</v>
@@ -1827,16 +1830,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D11" s="7">
         <v>260</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>14</v>
@@ -1845,13 +1848,13 @@
         <v>15</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>107</v>
@@ -1862,10 +1865,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D12" s="5">
         <v>14</v>
@@ -1880,13 +1883,13 @@
         <v>15</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>27</v>
@@ -1897,31 +1900,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="D13" s="5">
         <v>320</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="I13" s="10" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>46</v>
@@ -1953,10 +1956,10 @@
         <v>16</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
@@ -1967,10 +1970,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D15" s="5">
         <v>525</v>
@@ -1985,13 +1988,13 @@
         <v>15</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>107</v>
@@ -2003,10 +2006,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="D16" s="5">
         <v>354</v>
@@ -2021,13 +2024,13 @@
         <v>15</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>27</v>
@@ -2059,10 +2062,10 @@
         <v>21</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
@@ -2073,7 +2076,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -2091,16 +2094,16 @@
         <v>15</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2108,10 +2111,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D19" s="5">
         <v>921</v>
@@ -2126,13 +2129,13 @@
         <v>15</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>46</v>
@@ -2143,10 +2146,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D20" s="7">
         <v>921</v>
@@ -2161,16 +2164,16 @@
         <v>15</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2178,10 +2181,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D21" s="7">
         <v>921</v>
@@ -2196,16 +2199,16 @@
         <v>15</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2213,7 +2216,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>12</v>
@@ -2231,16 +2234,16 @@
         <v>15</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2248,10 +2251,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D23" s="5">
         <v>319</v>
@@ -2266,13 +2269,13 @@
         <v>15</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>27</v>
@@ -2283,10 +2286,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D24" s="7">
         <v>319</v>
@@ -2301,13 +2304,13 @@
         <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>27</v>
@@ -2318,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>12</v>
@@ -2336,16 +2339,16 @@
         <v>15</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2353,10 +2356,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D26" s="7">
         <v>0</v>
@@ -2371,13 +2374,13 @@
         <v>15</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>27</v>
@@ -2388,13 +2391,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>49</v>
@@ -2406,16 +2409,16 @@
         <v>15</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2423,10 +2426,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D28" s="5">
         <v>123</v>
@@ -2441,16 +2444,16 @@
         <v>15</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2458,7 +2461,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>79</v>
@@ -2479,10 +2482,10 @@
         <v>82</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>62</v>
@@ -2514,10 +2517,10 @@
         <v>128</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>62</v>
@@ -2528,10 +2531,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="D31" s="5">
         <v>182</v>
@@ -2546,13 +2549,13 @@
         <v>15</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>27</v>
@@ -2563,10 +2566,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D32" s="6">
         <v>1501</v>
@@ -2581,16 +2584,16 @@
         <v>15</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2598,7 +2601,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
@@ -2616,16 +2619,16 @@
         <v>15</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2633,7 +2636,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>12</v>
@@ -2651,16 +2654,16 @@
         <v>15</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2689,10 +2692,10 @@
         <v>26</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>27</v>
@@ -2724,10 +2727,10 @@
         <v>31</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>27</v>
@@ -2738,16 +2741,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>14</v>
@@ -2756,16 +2759,16 @@
         <v>15</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2773,16 +2776,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D38" s="6">
         <v>11100</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>14</v>
@@ -2791,13 +2794,13 @@
         <v>15</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>103</v>
@@ -2808,7 +2811,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>85</v>
@@ -2817,7 +2820,7 @@
         <v>3252</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>14</v>
@@ -2826,13 +2829,13 @@
         <v>15</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>62</v>
@@ -2864,13 +2867,13 @@
         <v>34</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2899,10 +2902,10 @@
         <v>38</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>27</v>
@@ -2934,10 +2937,10 @@
         <v>41</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>27</v>
@@ -2948,7 +2951,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>85</v>
@@ -2957,7 +2960,7 @@
         <v>3252</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>14</v>
@@ -2966,13 +2969,13 @@
         <v>15</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>62</v>
@@ -3004,10 +3007,10 @@
         <v>45</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>46</v>
@@ -3039,10 +3042,10 @@
         <v>50</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>51</v>
@@ -3074,10 +3077,10 @@
         <v>55</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>27</v>
@@ -3088,7 +3091,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>12</v>
@@ -3106,13 +3109,13 @@
         <v>15</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>58</v>
@@ -3123,7 +3126,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>12</v>
@@ -3141,16 +3144,16 @@
         <v>15</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3158,10 +3161,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D49" s="5">
         <v>211</v>
@@ -3176,13 +3179,13 @@
         <v>15</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>27</v>
@@ -3214,10 +3217,10 @@
         <v>57</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>58</v>
@@ -3249,10 +3252,10 @@
         <v>61</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>62</v>
@@ -3284,10 +3287,10 @@
         <v>65</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>66</v>
@@ -3298,10 +3301,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D53" s="5">
         <v>5</v>
@@ -3316,13 +3319,13 @@
         <v>15</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>46</v>
@@ -3333,7 +3336,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>43</v>
@@ -3351,13 +3354,13 @@
         <v>15</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>46</v>
@@ -3389,10 +3392,10 @@
         <v>70</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>27</v>
@@ -3424,10 +3427,10 @@
         <v>74</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>27</v>
@@ -3459,10 +3462,10 @@
         <v>77</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>27</v>
@@ -3494,10 +3497,10 @@
         <v>82</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>83</v>
@@ -3508,7 +3511,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>76</v>
@@ -3529,10 +3532,10 @@
         <v>77</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>27</v>
@@ -3543,7 +3546,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>79</v>
@@ -3564,10 +3567,10 @@
         <v>82</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>83</v>
@@ -3599,10 +3602,10 @@
         <v>87</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>62</v>
@@ -3634,10 +3637,10 @@
         <v>91</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>27</v>
@@ -3669,10 +3672,10 @@
         <v>94</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>62</v>
@@ -3704,10 +3707,10 @@
         <v>96</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>97</v>
@@ -3718,7 +3721,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
@@ -3736,16 +3739,16 @@
         <v>15</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3774,10 +3777,10 @@
         <v>99</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>58</v>
@@ -3809,10 +3812,10 @@
         <v>102</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>103</v>
@@ -3844,10 +3847,10 @@
         <v>106</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>107</v>
@@ -3879,10 +3882,10 @@
         <v>110</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>111</v>
@@ -3914,10 +3917,10 @@
         <v>114</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>27</v>
@@ -3949,10 +3952,10 @@
         <v>87</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>62</v>
@@ -3984,10 +3987,10 @@
         <v>118</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>107</v>
@@ -4019,10 +4022,10 @@
         <v>121</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>27</v>
@@ -4054,77 +4057,101 @@
         <v>125</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="I75" s="11" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="I76" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="J76" s="11" t="s">
+    </row>
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I80" s="11" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I77" s="11" t="s">
+      <c r="J80" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="J77" s="11" t="s">
+    </row>
+    <row r="81" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="I81" s="11" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I78" s="11" t="s">
+      <c r="J81" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="J78" s="11" t="s">
+    </row>
+    <row r="82" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="I82" s="11" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I79" s="11" t="s">
+      <c r="J82" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I80" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I81" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="J81" s="11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I82" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="J82" s="11" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
